--- a/5_CodingDrillDown/ReceptiveField_Calculator.xlsx
+++ b/5_CodingDrillDown/ReceptiveField_Calculator.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infosystechnologies-my.sharepoint.com/personal/divya_gopalkalyani_ad_infosys_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{01E41416-C16F-4A7F-B9B7-008945778258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{44F31B36-7D2F-46EB-92F0-49E4DEB5D71C}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{01E41416-C16F-4A7F-B9B7-008945778258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C0F4C36C-67D3-4D88-97B0-BF770BB809CD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DA9DAD62-20C4-4CD4-812D-DB6421BC2029}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="K">#REF!</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Channels</t>
   </si>
@@ -190,12 +191,70 @@
   <si>
     <t>Activation_Size</t>
   </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Training Accuracy</t>
+  </si>
+  <si>
+    <t>Test Accuracy</t>
+  </si>
+  <si>
+    <t>6.3M</t>
+  </si>
+  <si>
+    <t>MNIST_Basic_Setup</t>
+  </si>
+  <si>
+    <t>MNIST_Base Skeleton Model</t>
+  </si>
+  <si>
+    <t>MNIST_With_Batch Normalization</t>
+  </si>
+  <si>
+    <t>MNIST_With Dropout</t>
+  </si>
+  <si>
+    <t>MNIST_With_Augmentation</t>
+  </si>
+  <si>
+    <t>MNIST_With_LR Scheduler</t>
+  </si>
+  <si>
+    <t>•  Extremely Heavy Model for such a problem
+•  Model is over-fitting because the training accuracy is 99.93, but we are changing our model in the next step</t>
+  </si>
+  <si>
+    <t>• 	Get the set-up right
+• 	Set Transforms
+• 	Set Data Loader
+• 	Set Basic Working Code
+• 	Set Basic Training  &amp; Test Loop</t>
+  </si>
+  <si>
+    <t>•The model parameters have increased
+• The model is under-fitting. This is fine, as we know we have made our train data harder.  
+LR Scheduler helped getting to 99.4, Onecyclic LR is being used, this seemed to perform better than StepLR to achieve consistent accuracy in last few layers</t>
+  </si>
+  <si>
+    <t>•Add some capacity to the Model and added LR Scheduler</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,16 +269,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D1117"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -227,15 +300,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -267,9 +367,75 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D00F8E-9A4C-4394-80B6-E2F5A728F0AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1600200" y="0"/>
+          <a:ext cx="9725025" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C8C7898-152B-46AF-968A-5EE4FFF45FEB}" name="CNN" displayName="CNN" ref="C2:O39" totalsRowShown="0">
-  <autoFilter ref="C2:O39" xr:uid="{EA7906C9-F560-47D4-BE19-F18C08D4A357}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C8C7898-152B-46AF-968A-5EE4FFF45FEB}" name="CNN" displayName="CNN" ref="C15:O52" totalsRowShown="0">
+  <autoFilter ref="C15:O52" xr:uid="{EA7906C9-F560-47D4-BE19-F18C08D4A357}"/>
   <tableColumns count="13">
     <tableColumn id="2" xr3:uid="{DBAAC6F6-C075-49C3-BD00-63775E53F7CB}" name="nin"/>
     <tableColumn id="16" xr3:uid="{38376D14-97F2-48C8-86A8-F150B3965AE9}" name="Channels"/>
@@ -288,10 +454,10 @@
     <tableColumn id="13" xr3:uid="{7F48F0CB-72C5-48FB-8A43-BB7390D9DD7A}" name="rout" dataDxfId="2">
       <calculatedColumnFormula>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{178BA2ED-D1A2-49FD-94EA-285E0943B803}" name="Activation_Size" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{178BA2ED-D1A2-49FD-94EA-285E0943B803}" name="Activation_Size" dataDxfId="1">
       <calculatedColumnFormula>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E3BAF5FF-7992-45F6-8EBB-9B41121DF760}" name="Params#" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{E3BAF5FF-7992-45F6-8EBB-9B41121DF760}" name="Params#" dataDxfId="0">
       <calculatedColumnFormula>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -596,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F516E28B-B8C5-4936-9EE5-DE6C6B8DAAF1}">
-  <dimension ref="B2:R39"/>
+  <dimension ref="B15:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,729 +780,597 @@
     <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H15" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I15" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J15" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K15" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L15" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M15" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N15" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C16">
         <v>28</v>
       </c>
-      <c r="D3">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E16">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="H16">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I16">
         <f>((CNN[[#This Row],[nin]]+2*CNN[[#This Row],[padding]]-CNN[[#This Row],[kernel]])/CNN[[#This Row],[stride]])+1</f>
         <v>26</v>
       </c>
-      <c r="J3">
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="K16">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L16">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="M16">
         <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
         <v>3</v>
       </c>
-      <c r="N3">
+      <c r="N16">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>784</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O16" s="1">
         <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
         <v>72</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <f>I3</f>
+      <c r="C17">
+        <f t="shared" ref="C17:C30" si="0">I16</f>
         <v>26</v>
       </c>
-      <c r="D4">
+      <c r="D17">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E17">
         <v>16</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I17">
         <f>((CNN[[#This Row],[nin]]+2*CNN[[#This Row],[padding]]-CNN[[#This Row],[kernel]])/CNN[[#This Row],[stride]])+1</f>
         <v>24</v>
       </c>
-      <c r="J4">
-        <f>K3</f>
+      <c r="J17">
+        <f>K16</f>
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K17">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>1</v>
       </c>
-      <c r="L4">
-        <f>M3</f>
+      <c r="L17">
+        <f>M16</f>
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="M17">
         <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
         <v>5</v>
       </c>
-      <c r="N4">
+      <c r="N17">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>5408</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O17" s="1">
         <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
         <v>1152</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q17" t="s">
         <v>1</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <f>I4</f>
+      <c r="C18">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D5">
+      <c r="D18">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E18">
         <v>16</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="I18">
         <f>((CNN[[#This Row],[nin]]+2*CNN[[#This Row],[padding]]-CNN[[#This Row],[kernel]])/CNN[[#This Row],[stride]])+1</f>
         <v>12</v>
       </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J10" si="0">K4</f>
+      <c r="J18">
+        <f t="shared" ref="J18:J23" si="1">K17</f>
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K18">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>2</v>
       </c>
-      <c r="L5">
-        <f t="shared" ref="L5:L10" si="1">M4</f>
+      <c r="L18">
+        <f t="shared" ref="L18:L23" si="2">M17</f>
         <v>5</v>
       </c>
-      <c r="M5">
+      <c r="M18">
         <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
         <v>6</v>
       </c>
-      <c r="N5">
+      <c r="N18">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>9216</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="Q5" t="s">
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
         <v>2</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <f>I5</f>
+      <c r="C19">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="D19">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E19">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H19">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="I19">
         <f>((CNN[[#This Row],[nin]]+2*CNN[[#This Row],[padding]]-CNN[[#This Row],[kernel]])/CNN[[#This Row],[stride]])+1</f>
         <v>12</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
+      <c r="J19">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K6">
+      <c r="K19">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>2</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
+      <c r="L19">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M6">
+      <c r="M19">
         <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
         <v>12</v>
       </c>
-      <c r="N6">
+      <c r="N19">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>2304</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O19" s="1">
         <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
         <v>128</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q19" t="s">
         <v>11</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <f>I6</f>
+      <c r="C20">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D7">
+      <c r="D20">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E20">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="H20">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I20">
         <f>((CNN[[#This Row],[nin]]+2*CNN[[#This Row],[padding]]-CNN[[#This Row],[kernel]])/CNN[[#This Row],[stride]])+1</f>
         <v>10</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
+      <c r="J20">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="K20">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>2</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
+      <c r="L20">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="M7">
+      <c r="M20">
         <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
         <v>28</v>
       </c>
-      <c r="N7">
+      <c r="N20">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>1152</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O20" s="1">
         <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
         <v>720</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q20" t="s">
         <v>13</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <f>I7</f>
+      <c r="C21">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D21">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E21">
         <v>16</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="H8">
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="I21">
         <f>((CNN[[#This Row],[nin]]+2*CNN[[#This Row],[padding]]-CNN[[#This Row],[kernel]])/CNN[[#This Row],[stride]])+1</f>
         <v>8</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
+      <c r="J21">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K8">
+      <c r="K21">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>2</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
+      <c r="L21">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="M8">
+      <c r="M21">
         <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
         <v>60</v>
       </c>
-      <c r="N8">
+      <c r="N21">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>1000</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O21" s="1">
         <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
         <v>1440</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q21" t="s">
         <v>14</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <f>I8</f>
+      <c r="C22">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D22">
         <v>16</v>
       </c>
-      <c r="E9">
+      <c r="E22">
         <v>16</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="H22">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="I22">
         <f>((CNN[[#This Row],[nin]]+2*CNN[[#This Row],[padding]]-CNN[[#This Row],[kernel]])/CNN[[#This Row],[stride]])+1</f>
         <v>6</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
+      <c r="J22">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K9">
+      <c r="K22">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>2</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
+      <c r="L22">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M9">
+      <c r="M22">
         <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
         <v>124</v>
       </c>
-      <c r="N9">
+      <c r="N22">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>1024</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O22" s="1">
         <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
         <v>2304</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q22" t="s">
         <v>15</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
-        <f>I9</f>
+      <c r="C23">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="D23">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E23">
         <v>16</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I23">
         <f>((CNN[[#This Row],[nin]]+2*CNN[[#This Row],[padding]]-CNN[[#This Row],[kernel]])/CNN[[#This Row],[stride]])+1</f>
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="K23">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>2</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
+      <c r="L23">
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="M10">
+      <c r="M23">
         <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
         <v>252</v>
       </c>
-      <c r="N10">
+      <c r="N23">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>576</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O23" s="1">
         <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
         <v>2304</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <f>I10</f>
-        <v>4</v>
-      </c>
-      <c r="K11">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K24">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>0</v>
       </c>
-      <c r="N11">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <f>I11</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="N24">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>0</v>
       </c>
-      <c r="N12">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f>I12</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="N25">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>0</v>
       </c>
-      <c r="N13">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <f>I13</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="N26">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>0</v>
       </c>
-      <c r="N14">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <f>I14</f>
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="N27">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>0</v>
       </c>
-      <c r="N15">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>I15</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="N28">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
         <v>0</v>
       </c>
-      <c r="N16">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <f>I16</f>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N18">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N19">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N20">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N21">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N22">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N23">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N24">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N25">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N26">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N27">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N28">
-        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="1">
-        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="N29">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1346,7 +1380,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N30">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1356,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N31">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1366,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N32">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1442,6 +1480,136 @@
         <v>0</v>
       </c>
       <c r="O39" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
         <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
         <v>0</v>
       </c>
@@ -1449,8 +1617,141 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A86E5FD-51FE-4316-85E7-EBDFEBDE0E46}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2">
+        <v>99.93</v>
+      </c>
+      <c r="E2" s="2">
+        <v>99.28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6720</v>
+      </c>
+      <c r="D7" s="2">
+        <v>99.43</v>
+      </c>
+      <c r="E7" s="2">
+        <v>99.53</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown/Experiments/MNIST_Step1_BasicSetup.ipynb" xr:uid="{926FA637-E4E4-42BF-898E-3BCA355EA3B2}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown" xr:uid="{01A7D6E7-87BB-4386-A4A1-D95A4D3B75BC}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown" xr:uid="{2293E339-F1D5-4000-9EDF-327FF418FE34}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown" xr:uid="{39DDD097-79D8-45F3-B2D0-6D5382F87A36}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown" xr:uid="{87387503-7E3C-4023-9A68-F91B70CD598E}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown/Experiments/MNIST_Step7_LRScheduler.ipynb" xr:uid="{C8A15A21-6605-46F8-9357-561BAD5475A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+</worksheet>
 </file>
--- a/5_CodingDrillDown/ReceptiveField_Calculator.xlsx
+++ b/5_CodingDrillDown/ReceptiveField_Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infosystechnologies-my.sharepoint.com/personal/divya_gopalkalyani_ad_infosys_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="8_{01E41416-C16F-4A7F-B9B7-008945778258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C0F4C36C-67D3-4D88-97B0-BF770BB809CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A38627-65BA-4B60-AAF3-6026925511A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DA9DAD62-20C4-4CD4-812D-DB6421BC2029}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA9DAD62-20C4-4CD4-812D-DB6421BC2029}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,20 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Channels</t>
   </si>
@@ -242,12 +234,32 @@
 • 	Set Basic Training  &amp; Test Loop</t>
   </si>
   <si>
+    <t>MNIST_With_FullyConnectedLayer</t>
+  </si>
+  <si>
+    <t>•Add various Image augmentation techniques, image rotation, randomaffine, colorjitter .</t>
+  </si>
+  <si>
+    <t>•The model is under-fitting, that should be ok as we know we have made our train data harder.
+• However, we haven't reached 99.4 accuracy yet.
+•The model seems to be stuck at 99.2% accuracy, seems like the model needs some additional capacity towards the end.</t>
+  </si>
+  <si>
+    <t>• Add some capacity (additional FC layer after GAP) to the model and added LR Scheduler</t>
+  </si>
+  <si>
     <t>•The model parameters have increased
-• The model is under-fitting. This is fine, as we know we have made our train data harder.  
-LR Scheduler helped getting to 99.4, Onecyclic LR is being used, this seemed to perform better than StepLR to achieve consistent accuracy in last few layers</t>
-  </si>
-  <si>
-    <t>•Add some capacity to the Model and added LR Scheduler</t>
+• The model is under-fitting. This is fine, as we know we have made our train data harder. 
+• LR Scheduler and the additional capacity after GAP helped getting to the desired target 99.4, Onecyclic LR is being used, this seemed to perform better than StepLR to achieve consistent accuracy in last few layers</t>
+  </si>
+  <si>
+    <t>• The model parameters have increased
+• There is no overfitting rather slight underfitting, thats fine dropout is doing its work , because we are adding dropout at each layer the model is able to capture the training accuracy
+• However, we haven't reached 99.4 accuracy yet.
+Observing the missclassified images its good to try out some augmentation techniques as few images seems to be slightly rotated, and also image contrast needs to be considered</t>
+  </si>
+  <si>
+    <t>• Increase model capacity at the end (add layer after GAP)</t>
   </si>
 </sst>
 </file>
@@ -765,22 +777,22 @@
   <dimension ref="B15:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>1</v>
       </c>
@@ -821,7 +833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -873,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -931,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -959,7 +971,7 @@
         <v>12</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J23" si="1">K17</f>
+        <f t="shared" ref="J18:J24" si="1">K17</f>
         <v>1</v>
       </c>
       <c r="K18">
@@ -988,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -1046,7 +1058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1186,7 @@
         <v>16</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1211,7 +1223,7 @@
       </c>
       <c r="O22" s="1">
         <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>2304</v>
+        <v>2592</v>
       </c>
       <c r="Q22" t="s">
         <v>15</v>
@@ -1220,7 +1232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -1229,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>16</v>
@@ -1238,14 +1250,14 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
         <f>((CNN[[#This Row],[nin]]+2*CNN[[#This Row],[padding]]-CNN[[#This Row],[kernel]])/CNN[[#This Row],[stride]])+1</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
@@ -1261,39 +1273,73 @@
       </c>
       <c r="M23">
         <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N23">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>576</v>
+        <v>648</v>
       </c>
       <c r="O23" s="1">
         <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f>((CNN[[#This Row],[nin]]+2*CNN[[#This Row],[padding]]-CNN[[#This Row],[kernel]])/CNN[[#This Row],[stride]])+1</f>
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="K24">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24" si="3">M23</f>
+        <v>248</v>
+      </c>
+      <c r="M24">
+        <f>(CNN[[#This Row],[rin]]+CNN[[#This Row],[kernel]]-1)*CNN[[#This Row],[jin]]</f>
+        <v>496</v>
       </c>
       <c r="N24">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="O24" s="1">
         <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K25">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
@@ -1308,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1326,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1344,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1362,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C29">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1380,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1394,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="N31">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1404,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="N32">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1414,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N33">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1424,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N34">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1434,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N35">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1444,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N36">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1454,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N37">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1464,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N38">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1474,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N39">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1484,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N40">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1494,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N41">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1504,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N42">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1514,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N43">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1524,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N44">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1534,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N45">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1544,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N46">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1554,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N47">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1564,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N48">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1574,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N49">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1584,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N50">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1594,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N51">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1604,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N52">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
         <v>0</v>
@@ -1626,23 +1672,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A86E5FD-51FE-4316-85E7-EBDFEBDE0E46}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1662,7 +1708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1682,7 +1728,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1692,7 +1738,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1702,7 +1748,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1712,34 +1758,64 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6124</v>
+      </c>
+      <c r="D6" s="2">
+        <v>99.07</v>
+      </c>
+      <c r="E6" s="2">
+        <v>99.22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="2">
+        <v>6124</v>
+      </c>
+      <c r="D7" s="2">
+        <v>97.61</v>
+      </c>
+      <c r="E7" s="2">
+        <v>99.32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2">
         <v>6720</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>99.43</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>99.53</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1748,10 +1824,11 @@
     <hyperlink ref="A3" r:id="rId2" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown" xr:uid="{01A7D6E7-87BB-4386-A4A1-D95A4D3B75BC}"/>
     <hyperlink ref="A4" r:id="rId3" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown" xr:uid="{2293E339-F1D5-4000-9EDF-327FF418FE34}"/>
     <hyperlink ref="A5" r:id="rId4" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown" xr:uid="{39DDD097-79D8-45F3-B2D0-6D5382F87A36}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown" xr:uid="{87387503-7E3C-4023-9A68-F91B70CD598E}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown/Experiments/MNIST_Step7_LRScheduler.ipynb" xr:uid="{C8A15A21-6605-46F8-9357-561BAD5475A1}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown" xr:uid="{87387503-7E3C-4023-9A68-F91B70CD598E}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown/Experiments/MNIST_Step7_LRScheduler.ipynb" xr:uid="{C8A15A21-6605-46F8-9357-561BAD5475A1}"/>
+    <hyperlink ref="A6" r:id="rId7" display="https://github.com/gkdivya/EVA/blob/main/5_CodingDrillDown" xr:uid="{CE9C7E27-D425-416A-8062-F5867952C693}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/5_CodingDrillDown/ReceptiveField_Calculator.xlsx
+++ b/5_CodingDrillDown/ReceptiveField_Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A38627-65BA-4B60-AAF3-6026925511A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB4214-C067-4CF5-BDBF-5A0316EC2533}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA9DAD62-20C4-4CD4-812D-DB6421BC2029}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DA9DAD62-20C4-4CD4-812D-DB6421BC2029}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Channels</t>
   </si>
@@ -260,6 +260,33 @@
   </si>
   <si>
     <t>• Increase model capacity at the end (add layer after GAP)</t>
+  </si>
+  <si>
+    <t>•  We have structured our model in a readable way
+•  The model is lighter with less number of parameters 
+•  The performace is reduced compared to previous models. Since we have reduced model capacity, this is expected, the model has capability to learn. 
+• Next, we will be tweaking this model further and increase the capacity to push it more towards the desired accuracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • Get the basic skeleton interms of convolution and placement of transition blocks (max pooling, 1x1's)
+•  Reduce the number of parameters as low as possible
+•  Add GAP and remove the last BIG kernel.</t>
+  </si>
+  <si>
+    <t>•  Add Batch-norm to increase model efficiency.</t>
+  </si>
+  <si>
+    <t>•  There is slight increase in the number of parameters, as batch norm stores a specific mean and std deviation for each layer 
+ • Model overfitting problem is rectified to an extent. But, we have not reached the target test accuracy 99.40%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+•  Add Regularization Dropout to each layer except last layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  There is no overfitting at all. With dropout training will be harder, because we are droping the pixels randomly.
+•  The performance has droppped, we can further improve it. 
+•  But with the current capacity,not possible to push it further.We can possibly increase the capacity of the model by adding a layer after GAP! </t>
   </si>
 </sst>
 </file>
@@ -776,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F516E28B-B8C5-4936-9EE5-DE6C6B8DAAF1}">
   <dimension ref="B15:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1247,7 +1274,7 @@
         <v>16</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1257,7 +1284,7 @@
       </c>
       <c r="I23">
         <f>((CNN[[#This Row],[nin]]+2*CNN[[#This Row],[padding]]-CNN[[#This Row],[kernel]])/CNN[[#This Row],[stride]])+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
@@ -1290,7 +1317,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>16</v>
@@ -1299,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1309,7 +1336,7 @@
       </c>
       <c r="I24">
         <f>((CNN[[#This Row],[nin]]+2*CNN[[#This Row],[padding]]-CNN[[#This Row],[kernel]])/CNN[[#This Row],[stride]])+1</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
@@ -1329,7 +1356,7 @@
       </c>
       <c r="N24">
         <f>(CNN[[#This Row],[nin]]*CNN[[#This Row],[nin]]*CNN[[#This Row],[Channels]])</f>
-        <v>1024</v>
+        <v>576</v>
       </c>
       <c r="O24" s="1">
         <f>(CNN[[#This Row],[kernel]]*CNN[[#This Row],[kernel]]*CNN[[#This Row],[Channels]])*CNN[[#This Row],[Output_Channels]]</f>
@@ -1339,7 +1366,7 @@
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K25">
         <f>CNN[[#This Row],[jin]]*CNN[[#This Row],[stride]]</f>
@@ -1674,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A86E5FD-51FE-4316-85E7-EBDFEBDE0E46}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1728,35 +1755,65 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4572</v>
+      </c>
+      <c r="D3" s="2">
+        <v>98.22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>98.43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5088</v>
+      </c>
+      <c r="D4" s="2">
+        <v>99.03</v>
+      </c>
+      <c r="E4" s="2">
+        <v>99.04</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5088</v>
+      </c>
+      <c r="D5" s="2">
+        <v>97.94</v>
+      </c>
+      <c r="E5" s="2">
+        <v>98.64</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
